--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56E001-16AE-4A31-9158-2D67B2F459B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05D326-39EA-497F-BEA3-7485F3B62714}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
     <sheet name="load" sheetId="4" r:id="rId3"/>
-    <sheet name="storage" sheetId="6" r:id="rId4"/>
-    <sheet name="sgen" sheetId="5" r:id="rId5"/>
+    <sheet name="sgen" sheetId="5" r:id="rId4"/>
+    <sheet name="storage" sheetId="6" r:id="rId5"/>
     <sheet name="bus" sheetId="3" r:id="rId6"/>
     <sheet name="line" sheetId="11" r:id="rId7"/>
     <sheet name="switch" sheetId="8" r:id="rId8"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="433">
   <si>
     <t>element</t>
   </si>
@@ -818,9 +818,6 @@
     <t>Bus RC6</t>
   </si>
   <si>
-    <t>Bus RC7</t>
-  </si>
-  <si>
     <t>Bus RC8</t>
   </si>
   <si>
@@ -1016,9 +1013,6 @@
     <t>Line RC5-RC6</t>
   </si>
   <si>
-    <t>Line RC6-RC7</t>
-  </si>
-  <si>
     <t>Line RC2-RC8</t>
   </si>
   <si>
@@ -1368,6 +1362,9 @@
   </si>
   <si>
     <t>CHP diesel 6rc</t>
+  </si>
+  <si>
+    <t>CHP diesel 7rc</t>
   </si>
 </sst>
 </file>
@@ -7225,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8029,7 +8026,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -8038,7 +8035,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -8052,7 +8049,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B2">
         <v>4.0299999999999997E-3</v>
@@ -8070,7 +8067,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H2">
         <v>8.3000000000000004E-2</v>
@@ -8078,7 +8075,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>4.0299999999999997E-3</v>
@@ -8096,7 +8093,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H3">
         <v>0.08</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B4">
         <v>4.0299999999999997E-3</v>
@@ -8122,7 +8119,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H4">
         <v>0.08</v>
@@ -8130,7 +8127,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <v>4.0299999999999997E-3</v>
@@ -8148,7 +8145,7 @@
         <v>0.313</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H5">
         <v>0.13200000000000001</v>
@@ -8156,7 +8153,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6">
         <v>4.0299999999999997E-3</v>
@@ -8174,7 +8171,7 @@
         <v>0.161</v>
       </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H6">
         <v>0.11700000000000001</v>
@@ -8182,7 +8179,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7">
         <v>4.0299999999999997E-3</v>
@@ -8200,7 +8197,7 @@
         <v>0.122</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H7">
         <v>0.112</v>
@@ -8208,7 +8205,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8">
         <v>4.0299999999999997E-3</v>
@@ -8226,7 +8223,7 @@
         <v>0.313</v>
       </c>
       <c r="G8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H8">
         <v>0.123</v>
@@ -8234,7 +8231,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <v>4.0299999999999997E-3</v>
@@ -8252,7 +8249,7 @@
         <v>0.161</v>
       </c>
       <c r="G9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H9">
         <v>0.11</v>
@@ -8260,7 +8257,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B10">
         <v>4.0299999999999997E-3</v>
@@ -8278,7 +8275,7 @@
         <v>0.122</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H10">
         <v>0.105</v>
@@ -8286,7 +8283,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11">
         <v>4.0299999999999997E-3</v>
@@ -8304,7 +8301,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H11">
         <v>0.11600000000000001</v>
@@ -8312,7 +8309,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12">
         <v>4.0299999999999997E-3</v>
@@ -8330,7 +8327,7 @@
         <v>0.253</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H12">
         <v>0.11899999999999999</v>
@@ -8338,7 +8335,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13">
         <v>4.0299999999999997E-3</v>
@@ -8356,7 +8353,7 @@
         <v>0.443</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H13">
         <v>0.13200000000000001</v>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B14">
         <v>4.0299999999999997E-3</v>
@@ -8382,7 +8379,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H14">
         <v>0.11</v>
@@ -8390,7 +8387,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B15">
         <v>4.0299999999999997E-3</v>
@@ -8408,7 +8405,7 @@
         <v>0.253</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H15">
         <v>0.113</v>
@@ -8416,7 +8413,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B16">
         <v>4.0299999999999997E-3</v>
@@ -8434,7 +8431,7 @@
         <v>0.443</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H16">
         <v>0.123</v>
@@ -8442,7 +8439,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B17">
         <v>3.9300000000000003E-3</v>
@@ -8460,7 +8457,7 @@
         <v>0.153</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H17">
         <v>0.16600000000000001</v>
@@ -8468,7 +8465,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B18">
         <v>3.9300000000000003E-3</v>
@@ -8486,7 +8483,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H18">
         <v>0.156</v>
@@ -8494,7 +8491,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B19">
         <v>3.9300000000000003E-3</v>
@@ -8512,7 +8509,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H19">
         <v>0.14899999999999999</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B20">
         <v>3.9300000000000003E-3</v>
@@ -8538,7 +8535,7 @@
         <v>0.06</v>
       </c>
       <c r="G20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H20">
         <v>0.14399999999999999</v>
@@ -8546,7 +8543,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B21">
         <v>4.0299999999999997E-3</v>
@@ -8564,7 +8561,7 @@
         <v>1.8769</v>
       </c>
       <c r="G21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H21">
         <v>0.35</v>
@@ -8572,7 +8569,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B22">
         <v>4.0299999999999997E-3</v>
@@ -8590,7 +8587,7 @@
         <v>1.2012</v>
       </c>
       <c r="G22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H22">
         <v>0.33500000000000002</v>
@@ -8598,7 +8595,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23">
         <v>4.0299999999999997E-3</v>
@@ -8616,7 +8613,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H23">
         <v>0.3</v>
@@ -8624,7 +8621,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24">
         <v>4.0299999999999997E-3</v>
@@ -8642,7 +8639,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H24">
         <v>0.28999999999999998</v>
@@ -8650,7 +8647,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B25">
         <v>4.0299999999999997E-3</v>
@@ -8668,7 +8665,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H25">
         <v>0.36</v>
@@ -8676,7 +8673,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B26">
         <v>4.0299999999999997E-3</v>
@@ -8694,7 +8691,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -8702,7 +8699,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B27">
         <v>4.0299999999999997E-3</v>
@@ -8720,7 +8717,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H27">
         <v>0.33900000000000002</v>
@@ -8728,7 +8725,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B28">
         <v>4.0299999999999997E-3</v>
@@ -8746,7 +8743,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H28">
         <v>0.33</v>
@@ -8754,7 +8751,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B29">
         <v>4.0299999999999997E-3</v>
@@ -8772,7 +8769,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H29">
         <v>0.32300000000000001</v>
@@ -8780,7 +8777,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B30">
         <v>4.0299999999999997E-3</v>
@@ -8798,7 +8795,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H30">
         <v>0.315</v>
@@ -8806,7 +8803,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B31">
         <v>4.0299999999999997E-3</v>
@@ -8824,7 +8821,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H31">
         <v>0.38200000000000001</v>
@@ -8832,7 +8829,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B32">
         <v>4.0299999999999997E-3</v>
@@ -8850,7 +8847,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H32">
         <v>0.372</v>
@@ -8858,7 +8855,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B33">
         <v>4.0299999999999997E-3</v>
@@ -8876,7 +8873,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H33">
         <v>0.36</v>
@@ -8884,7 +8881,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34">
         <v>4.0299999999999997E-3</v>
@@ -8902,7 +8899,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H34">
         <v>0.35</v>
@@ -8910,7 +8907,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35">
         <v>4.0299999999999997E-3</v>
@@ -8928,7 +8925,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H35">
         <v>0.34399999999999997</v>
@@ -8936,7 +8933,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B36">
         <v>4.0299999999999997E-3</v>
@@ -8954,7 +8951,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H36">
         <v>0.33700000000000002</v>
@@ -8962,7 +8959,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B37">
         <v>4.0299999999999997E-3</v>
@@ -8980,7 +8977,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H37">
         <v>0.33</v>
@@ -8988,7 +8985,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B38">
         <v>4.0299999999999997E-3</v>
@@ -9006,7 +9003,7 @@
         <v>0.1188</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H38">
         <v>0.32</v>
@@ -9014,7 +9011,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B39">
         <v>4.0299999999999997E-3</v>
@@ -9032,7 +9029,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H39">
         <v>0.41</v>
@@ -9040,7 +9037,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B40">
         <v>4.0299999999999997E-3</v>
@@ -9058,7 +9055,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H40">
         <v>0.4</v>
@@ -9066,7 +9063,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B41">
         <v>4.0299999999999997E-3</v>
@@ -9084,7 +9081,7 @@
         <v>0.1188</v>
       </c>
       <c r="G41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H41">
         <v>0.39</v>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B42">
         <v>4.0299999999999997E-3</v>
@@ -9110,7 +9107,7 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H42">
         <v>0.38</v>
@@ -9118,7 +9115,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B43">
         <v>4.0299999999999997E-3</v>
@@ -9136,7 +9133,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H43">
         <v>0.28499999999999998</v>
@@ -9144,7 +9141,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B44">
         <v>4.0299999999999997E-3</v>
@@ -9162,7 +9159,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H44">
         <v>0.253</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -9182,7 +9179,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H45">
         <v>8.3199999999999996E-2</v>
@@ -9190,7 +9187,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9202,7 +9199,7 @@
         <v>0.26469999999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H46">
         <v>8.2299999999999998E-2</v>
@@ -9210,7 +9207,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9222,7 +9219,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="G47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H47">
         <v>8.4699999999999998E-2</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -9242,7 +9239,7 @@
         <v>0.49170000000000003</v>
       </c>
       <c r="G48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H48">
         <v>0.28470000000000001</v>
@@ -9250,7 +9247,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -9262,7 +9259,7 @@
         <v>1.3207</v>
       </c>
       <c r="G49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H49">
         <v>0.32100000000000001</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -9282,7 +9279,7 @@
         <v>2.0167000000000002</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H50">
         <v>0.33429999999999999</v>
@@ -9336,7 +9333,7 @@
         <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>97</v>
@@ -9353,7 +9350,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -9380,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9389,7 +9386,7 @@
         <v>1.5</v>
       </c>
       <c r="M2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N2">
         <v>12.2</v>
@@ -9406,7 +9403,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -9433,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -9442,7 +9439,7 @@
         <v>1.5</v>
       </c>
       <c r="M3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N3">
         <v>12</v>
@@ -9459,7 +9456,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -9486,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -9495,7 +9492,7 @@
         <v>1.5</v>
       </c>
       <c r="M4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N4">
         <v>18</v>
@@ -9512,7 +9509,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -9539,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9548,7 +9545,7 @@
         <v>1.5</v>
       </c>
       <c r="M5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N5">
         <v>16.2</v>
@@ -9565,7 +9562,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
@@ -9592,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9601,7 +9598,7 @@
         <v>1.5</v>
       </c>
       <c r="M6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -9618,7 +9615,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -9645,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9654,7 +9651,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N7">
         <v>18</v>
@@ -9671,7 +9668,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -9698,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9707,7 +9704,7 @@
         <v>1.5</v>
       </c>
       <c r="M8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N8">
         <v>16.2</v>
@@ -9724,7 +9721,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B9">
         <v>7.0000000000000007E-2</v>
@@ -9751,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -9760,7 +9757,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N9">
         <v>12</v>
@@ -9777,7 +9774,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -9804,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -9813,7 +9810,7 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N10">
         <v>6</v>
@@ -9830,7 +9827,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B11">
         <v>0.33750000000000002</v>
@@ -9857,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -9866,7 +9863,7 @@
         <v>2.5</v>
       </c>
       <c r="M11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -9883,7 +9880,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B12">
         <v>0.26190000000000002</v>
@@ -9910,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -9919,7 +9916,7 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -9936,7 +9933,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -9963,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9972,7 +9969,7 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B14">
         <v>0.23749999999999999</v>
@@ -10016,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10025,7 +10022,7 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -10042,7 +10039,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B15">
         <v>0.18729999999999999</v>
@@ -10069,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10078,7 +10075,7 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -10144,7 +10141,7 @@
         <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>115</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B2">
         <v>0.89</v>
@@ -10209,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M2">
         <v>1.2</v>
       </c>
       <c r="N2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O2">
         <v>10.4</v>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3">
         <v>0.89</v>
@@ -10280,13 +10277,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M3">
         <v>1.2</v>
       </c>
       <c r="N3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O3">
         <v>10.4</v>
@@ -10538,8 +10535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11422,10 +11419,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -11451,10 +11448,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -11480,10 +11477,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -11509,10 +11506,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C34" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -11538,10 +11535,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C35" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -11567,10 +11564,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C36" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -11596,10 +11593,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C37" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -11625,10 +11622,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -11654,10 +11651,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C39" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -11679,62 +11676,12 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="1">
-        <v>62</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="1">
-        <v>63</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -11742,11 +11689,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -12036,6 +11982,568 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.31</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.31</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.31</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -12095,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -12119,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -12127,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -12151,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M3">
         <v>7.0000000000000007E-2</v>
@@ -12162,7 +12670,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -12186,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M4">
         <v>7.0000000000000007E-2</v>
@@ -12197,7 +12705,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -12221,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M5">
         <v>7.0000000000000007E-2</v>
@@ -12232,10 +12740,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12256,537 +12764,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M6">
         <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.31</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11">
-        <v>63</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12">
-        <v>62</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.31</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>433</v>
-      </c>
-      <c r="C16">
-        <v>64</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.31</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12798,8 +12779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12829,16 +12810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -12849,16 +12830,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -12875,10 +12856,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -12895,10 +12876,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -12915,10 +12896,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
         <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>265</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -12935,10 +12916,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
         <v>264</v>
-      </c>
-      <c r="E7" t="s">
-        <v>265</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -12955,10 +12936,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
         <v>264</v>
-      </c>
-      <c r="E8" t="s">
-        <v>265</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -12975,10 +12956,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
         <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>265</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -12995,10 +12976,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
         <v>264</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -13015,10 +12996,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
         <v>264</v>
-      </c>
-      <c r="E11" t="s">
-        <v>265</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -13035,10 +13016,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
         <v>264</v>
-      </c>
-      <c r="E12" t="s">
-        <v>265</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -13055,10 +13036,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
         <v>264</v>
-      </c>
-      <c r="E13" t="s">
-        <v>265</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -13075,10 +13056,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
         <v>264</v>
-      </c>
-      <c r="E14" t="s">
-        <v>265</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -13095,10 +13076,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
         <v>264</v>
-      </c>
-      <c r="E15" t="s">
-        <v>265</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -13115,10 +13096,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
         <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>265</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -13135,10 +13116,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
         <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>265</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -13155,10 +13136,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
         <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>265</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -13175,10 +13156,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
         <v>264</v>
-      </c>
-      <c r="E19" t="s">
-        <v>265</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -13195,10 +13176,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
         <v>264</v>
-      </c>
-      <c r="E20" t="s">
-        <v>265</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -13215,10 +13196,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
         <v>264</v>
-      </c>
-      <c r="E21" t="s">
-        <v>265</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -13235,10 +13216,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
         <v>264</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -13255,10 +13236,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -13275,10 +13256,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -13295,10 +13276,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
         <v>264</v>
-      </c>
-      <c r="E25" t="s">
-        <v>265</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -13315,10 +13296,10 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -13335,10 +13316,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -13355,10 +13336,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -13375,10 +13356,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
         <v>264</v>
-      </c>
-      <c r="E29" t="s">
-        <v>265</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -13395,10 +13376,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
         <v>264</v>
-      </c>
-      <c r="E30" t="s">
-        <v>265</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -13415,10 +13396,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
         <v>264</v>
-      </c>
-      <c r="E31" t="s">
-        <v>265</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -13435,10 +13416,10 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
         <v>264</v>
-      </c>
-      <c r="E32" t="s">
-        <v>265</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -13455,10 +13436,10 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
         <v>264</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -13475,10 +13456,10 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
         <v>264</v>
-      </c>
-      <c r="E34" t="s">
-        <v>265</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -13495,10 +13476,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
         <v>264</v>
-      </c>
-      <c r="E35" t="s">
-        <v>265</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -13515,10 +13496,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
         <v>264</v>
-      </c>
-      <c r="E36" t="s">
-        <v>265</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -13535,10 +13516,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
         <v>264</v>
-      </c>
-      <c r="E37" t="s">
-        <v>265</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -13555,10 +13536,10 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
         <v>264</v>
-      </c>
-      <c r="E38" t="s">
-        <v>265</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -13575,10 +13556,10 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
         <v>264</v>
-      </c>
-      <c r="E39" t="s">
-        <v>265</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -13595,10 +13576,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
         <v>264</v>
-      </c>
-      <c r="E40" t="s">
-        <v>265</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -13615,10 +13596,10 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
         <v>264</v>
-      </c>
-      <c r="E41" t="s">
-        <v>265</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -13635,10 +13616,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
         <v>264</v>
-      </c>
-      <c r="E42" t="s">
-        <v>265</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -13655,10 +13636,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
         <v>264</v>
-      </c>
-      <c r="E43" t="s">
-        <v>265</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -13675,10 +13656,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
         <v>264</v>
-      </c>
-      <c r="E44" t="s">
-        <v>265</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -13695,10 +13676,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
         <v>264</v>
-      </c>
-      <c r="E45" t="s">
-        <v>265</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -13715,10 +13696,10 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
         <v>264</v>
-      </c>
-      <c r="E46" t="s">
-        <v>265</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -13735,10 +13716,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
         <v>264</v>
-      </c>
-      <c r="E47" t="s">
-        <v>265</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -13755,10 +13736,10 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -13775,10 +13756,10 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -13795,10 +13776,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
         <v>264</v>
-      </c>
-      <c r="E50" t="s">
-        <v>265</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -13815,10 +13796,10 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
         <v>264</v>
-      </c>
-      <c r="E51" t="s">
-        <v>265</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -13835,10 +13816,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
         <v>264</v>
-      </c>
-      <c r="E52" t="s">
-        <v>265</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -13855,10 +13836,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
         <v>264</v>
-      </c>
-      <c r="E53" t="s">
-        <v>265</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -13875,10 +13856,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
         <v>264</v>
-      </c>
-      <c r="E54" t="s">
-        <v>265</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -13895,10 +13876,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
         <v>264</v>
-      </c>
-      <c r="E55" t="s">
-        <v>265</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -13915,10 +13896,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
         <v>264</v>
-      </c>
-      <c r="E56" t="s">
-        <v>265</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -13935,10 +13916,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
         <v>264</v>
-      </c>
-      <c r="E57" t="s">
-        <v>265</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -13955,10 +13936,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
         <v>264</v>
-      </c>
-      <c r="E58" t="s">
-        <v>265</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -13975,10 +13956,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
         <v>264</v>
-      </c>
-      <c r="E59" t="s">
-        <v>265</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -13995,10 +13976,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
         <v>264</v>
-      </c>
-      <c r="E60" t="s">
-        <v>265</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -14015,10 +13996,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
         <v>264</v>
-      </c>
-      <c r="E61" t="s">
-        <v>265</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -14035,10 +14016,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
         <v>264</v>
-      </c>
-      <c r="E62" t="s">
-        <v>265</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -14055,10 +14036,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
         <v>264</v>
-      </c>
-      <c r="E63" t="s">
-        <v>265</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -14075,10 +14056,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
         <v>264</v>
-      </c>
-      <c r="E64" t="s">
-        <v>265</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -14095,34 +14076,17 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
         <v>264</v>
       </c>
-      <c r="E65" t="s">
-        <v>265</v>
-      </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
@@ -14143,8 +14107,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14201,10 +14165,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -14237,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -14248,10 +14212,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -14284,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -14295,10 +14259,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -14331,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -14342,10 +14306,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -14378,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -14389,10 +14353,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -14425,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -14436,10 +14400,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -14472,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -14483,10 +14447,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -14519,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -14530,10 +14494,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -14557,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -14566,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -14577,10 +14541,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -14613,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -14624,10 +14588,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -14660,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -14671,10 +14635,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -14707,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -14718,10 +14682,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -14754,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -14765,10 +14729,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -14801,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -14812,10 +14776,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -14848,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -14859,10 +14823,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -14895,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -14906,10 +14870,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D17">
         <v>11</v>
@@ -14942,7 +14906,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -14953,10 +14917,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -14989,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -15000,10 +14964,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D19">
         <v>21</v>
@@ -15036,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -15047,10 +15011,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D20">
         <v>22</v>
@@ -15083,7 +15047,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -15094,10 +15058,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D21">
         <v>22</v>
@@ -15130,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -15141,10 +15105,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D22">
         <v>23</v>
@@ -15177,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -15188,10 +15152,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -15224,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -15235,10 +15199,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D24">
         <v>26</v>
@@ -15271,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -15282,10 +15246,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -15318,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -15329,10 +15293,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D26">
         <v>28</v>
@@ -15365,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -15376,10 +15340,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D27">
         <v>29</v>
@@ -15412,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -15423,10 +15387,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -15459,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -15470,10 +15434,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D29">
         <v>31</v>
@@ -15506,7 +15470,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -15517,10 +15481,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -15553,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -15564,10 +15528,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D31">
         <v>33</v>
@@ -15600,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -15611,10 +15575,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D32">
         <v>28</v>
@@ -15647,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -15658,10 +15622,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -15694,7 +15658,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -15705,10 +15669,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D34">
         <v>36</v>
@@ -15741,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -15752,10 +15716,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D35">
         <v>36</v>
@@ -15788,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -15799,10 +15763,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -15835,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -15846,10 +15810,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -15882,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -15893,10 +15857,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -15929,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -15940,10 +15904,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D39">
         <v>40</v>
@@ -15976,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -15987,10 +15951,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D40">
         <v>41</v>
@@ -16023,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -16034,10 +15998,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D41">
         <v>33</v>
@@ -16070,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -16081,10 +16045,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D42">
         <v>34</v>
@@ -16117,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -16128,10 +16092,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D43">
         <v>47</v>
@@ -16164,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -16175,10 +16139,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44">
         <v>48</v>
@@ -16202,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -16211,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -16222,10 +16186,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D45">
         <v>49</v>
@@ -16249,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -16258,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -16269,10 +16233,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -16296,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -16305,7 +16269,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -16316,10 +16280,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D47">
         <v>51</v>
@@ -16343,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -16352,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -16363,13 +16327,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D48">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>53</v>
@@ -16399,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -16410,13 +16374,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D49">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>54</v>
@@ -16437,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -16446,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -16457,10 +16421,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D50">
         <v>54</v>
@@ -16484,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -16493,7 +16457,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -16504,10 +16468,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D51">
         <v>55</v>
@@ -16516,7 +16480,7 @@
         <v>56</v>
       </c>
       <c r="F51">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G51">
         <v>0.16200000000000001</v>
@@ -16531,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -16540,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -16551,10 +16515,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D52">
         <v>56</v>
@@ -16563,7 +16527,7 @@
         <v>57</v>
       </c>
       <c r="F52">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G52">
         <v>0.16200000000000001</v>
@@ -16578,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -16587,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -16598,10 +16562,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D53">
         <v>57</v>
@@ -16634,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -16645,10 +16609,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D54">
         <v>58</v>
@@ -16681,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -16692,10 +16656,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D55">
         <v>59</v>
@@ -16704,7 +16668,7 @@
         <v>60</v>
       </c>
       <c r="F55">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G55">
         <v>0.16200000000000001</v>
@@ -16719,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -16728,7 +16692,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -16739,13 +16703,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D56">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>61</v>
@@ -16766,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -16775,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -16786,13 +16750,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D57">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>62</v>
@@ -16822,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -16833,10 +16797,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" t="s">
         <v>326</v>
-      </c>
-      <c r="C58" t="s">
-        <v>328</v>
       </c>
       <c r="D58">
         <v>62</v>
@@ -16869,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -16880,19 +16844,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="C59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D59">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G59">
         <v>0.16200000000000001</v>
@@ -16907,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -16916,7 +16880,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -16927,16 +16891,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F60">
         <v>3.5000000000000003E-2</v>
@@ -16954,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -16963,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -16974,25 +16938,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G61">
-        <v>0.16200000000000001</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H61">
-        <v>8.3199999999999996E-2</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -17010,58 +16974,14 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C62" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0.03</v>
-      </c>
-      <c r="G62">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="H62">
-        <v>0.28470000000000001</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1.5</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" t="s">
-        <v>335</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -17118,16 +17038,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17144,16 +17064,16 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -17170,16 +17090,16 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17196,16 +17116,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05D326-39EA-497F-BEA3-7485F3B62714}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E457D9-61B1-4AA1-A88D-79BF4F498A27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="428">
   <si>
     <t>element</t>
   </si>
@@ -1292,18 +1292,6 @@
     <t>SRC</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>EV 1</t>
-  </si>
-  <si>
-    <t>EV 2</t>
-  </si>
-  <si>
-    <t>EV 3</t>
-  </si>
-  <si>
     <t>PV 1r</t>
   </si>
   <si>
@@ -1338,9 +1326,6 @@
   </si>
   <si>
     <t>PV 9rc</t>
-  </si>
-  <si>
-    <t>EV 4</t>
   </si>
   <si>
     <t>CHP diesel 4c</t>
@@ -11985,7 +11970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12028,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -12060,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -12092,7 +12077,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -12124,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -12156,7 +12141,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -12188,7 +12173,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -12220,7 +12205,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -12252,7 +12237,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -12284,7 +12269,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C10">
         <v>59</v>
@@ -12316,7 +12301,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C11">
         <v>62</v>
@@ -12348,7 +12333,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C12">
         <v>61</v>
@@ -12380,7 +12365,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C13">
         <v>57</v>
@@ -12412,7 +12397,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -12444,7 +12429,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C15">
         <v>33</v>
@@ -12476,7 +12461,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -12508,7 +12493,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C17">
         <v>52</v>
@@ -12548,7 +12533,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12631,144 +12616,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.04</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M3">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.04</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>408</v>
-      </c>
-      <c r="M4">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.04</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>408</v>
-      </c>
-      <c r="M5">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6">
-        <v>62</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.04</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>408</v>
-      </c>
-      <c r="M6">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12779,7 +12636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -14106,7 +13963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
@@ -15105,7 +14962,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C22" t="s">
         <v>328</v>
@@ -16844,7 +16701,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C59" t="s">
         <v>326</v>
@@ -16891,7 +16748,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C60" t="s">
         <v>326</v>
@@ -16938,7 +16795,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C61" t="s">
         <v>329</v>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E457D9-61B1-4AA1-A88D-79BF4F498A27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A10B6-3B70-41C2-9C73-826C1BEF31F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1307,9 +1307,6 @@
     <t>PV 5r</t>
   </si>
   <si>
-    <t>PV 6r</t>
-  </si>
-  <si>
     <t>CHP diesel 1r</t>
   </si>
   <si>
@@ -1350,6 +1347,9 @@
   </si>
   <si>
     <t>CHP diesel 7rc</t>
+  </si>
+  <si>
+    <t>CHP diesel 2r</t>
   </si>
 </sst>
 </file>
@@ -11971,7 +11971,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -12205,7 +12205,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -12237,7 +12237,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -12269,7 +12269,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10">
         <v>59</v>
@@ -12301,7 +12301,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C11">
         <v>62</v>
@@ -12333,7 +12333,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12">
         <v>61</v>
@@ -12365,7 +12365,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C13">
         <v>57</v>
@@ -12397,7 +12397,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -12429,7 +12429,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C15">
         <v>33</v>
@@ -12461,7 +12461,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -12493,7 +12493,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17">
         <v>52</v>
@@ -12637,7 +12637,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13964,8 +13964,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14962,7 +14962,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
         <v>328</v>
@@ -16701,7 +16701,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C59" t="s">
         <v>326</v>
@@ -16748,7 +16748,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C60" t="s">
         <v>326</v>
@@ -16795,7 +16795,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s">
         <v>329</v>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A10B6-3B70-41C2-9C73-826C1BEF31F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE95B60-4576-499A-85B8-A9C13D159977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -11970,8 +11970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12636,8 +12636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13964,8 +13964,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE95B60-4576-499A-85B8-A9C13D159977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8DFEE-2F76-4F14-A72E-1201BDC376D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -1373,12 +1373,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1419,12 +1431,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -12636,7 +12657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -13961,11 +13982,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14021,26 +14042,26 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>270</v>
+      <c r="B2" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
-        <v>0.16200000000000001</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H2">
-        <v>8.3199999999999996E-2</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -14058,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -14068,17 +14089,17 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>271</v>
+      <c r="B3" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="C3" t="s">
         <v>326</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>3.5000000000000003E-2</v>
@@ -14096,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -14115,17 +14136,17 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>272</v>
+      <c r="B4" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>326</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>3.5000000000000003E-2</v>
@@ -14143,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -14162,17 +14183,17 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>273</v>
+      <c r="B5" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>326</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>3.5000000000000003E-2</v>
@@ -14190,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -14209,17 +14230,17 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>274</v>
+      <c r="B6" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>326</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>3.5000000000000003E-2</v>
@@ -14237,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -14256,17 +14277,17 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>275</v>
+      <c r="B7" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>326</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>3.5000000000000003E-2</v>
@@ -14284,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -14303,17 +14324,17 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>276</v>
+      <c r="B8" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>326</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>3.5000000000000003E-2</v>
@@ -14331,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -14351,16 +14372,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>326</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>3.5000000000000003E-2</v>
@@ -14378,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -14398,16 +14419,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>326</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>3.5000000000000003E-2</v>
@@ -14425,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -14445,25 +14466,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G11">
-        <v>0.82199999999999995</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H11">
-        <v>8.4699999999999998E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -14472,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -14492,25 +14513,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G12">
-        <v>0.82199999999999995</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H12">
-        <v>8.4699999999999998E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -14519,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -14539,19 +14560,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>327</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
         <v>0.82199999999999995</v>
@@ -14566,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -14586,16 +14607,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>327</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>3.5000000000000003E-2</v>
@@ -14613,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -14633,19 +14654,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>327</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G15">
         <v>0.82199999999999995</v>
@@ -14660,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -14680,19 +14701,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>327</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G16">
         <v>0.82199999999999995</v>
@@ -14707,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -14727,16 +14748,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>327</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>0.03</v>
@@ -14754,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -14774,16 +14795,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>327</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>0.03</v>
@@ -14801,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -14821,25 +14842,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="G19">
-        <v>0.26469999999999999</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H19">
-        <v>8.2299999999999998E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -14848,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -14868,25 +14889,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="G20">
-        <v>0.26469999999999999</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H20">
-        <v>8.2299999999999998E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -14895,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -14914,17 +14935,17 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>289</v>
+      <c r="B21" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>328</v>
       </c>
       <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
         <v>22</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
       </c>
       <c r="F21">
         <v>0.2</v>
@@ -14942,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -14961,17 +14982,17 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>421</v>
+      <c r="B22" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C22" t="s">
         <v>328</v>
       </c>
       <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
         <v>23</v>
-      </c>
-      <c r="E22">
-        <v>24</v>
       </c>
       <c r="F22">
         <v>0.2</v>
@@ -14989,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -15009,25 +15030,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0.49170000000000003</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="H23">
-        <v>0.28470000000000001</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -15036,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -15045,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -15056,25 +15077,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G24">
-        <v>0.49170000000000003</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="H24">
-        <v>0.28470000000000001</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -15083,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -15092,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -15102,17 +15123,17 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>292</v>
+      <c r="B25" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="C25" t="s">
         <v>329</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25">
         <v>0.03</v>
@@ -15130,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -15149,17 +15170,17 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>293</v>
+      <c r="B26" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="C26" t="s">
         <v>329</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <v>0.03</v>
@@ -15177,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -15196,17 +15217,17 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>294</v>
+      <c r="B27" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C27" t="s">
         <v>329</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>0.03</v>
@@ -15224,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15243,17 +15264,17 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>295</v>
+      <c r="B28" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>329</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>0.03</v>
@@ -15271,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15290,17 +15311,17 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>296</v>
+      <c r="B29" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C29" t="s">
         <v>329</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>0.03</v>
@@ -15318,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -15338,16 +15359,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
         <v>329</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30">
         <v>0.03</v>
@@ -15365,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -15385,16 +15406,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
         <v>329</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>0.03</v>
@@ -15412,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -15432,25 +15453,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>0.03</v>
       </c>
       <c r="G32">
-        <v>1.3207</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H32">
-        <v>0.32100000000000001</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -15459,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -15479,25 +15500,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F33">
         <v>0.03</v>
       </c>
       <c r="G33">
-        <v>1.3207</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H33">
-        <v>0.32100000000000001</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -15506,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -15526,25 +15547,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34">
         <v>0.03</v>
       </c>
       <c r="G34">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H34">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -15553,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -15573,25 +15594,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35">
         <v>36</v>
-      </c>
-      <c r="E35">
-        <v>38</v>
       </c>
       <c r="F35">
         <v>0.03</v>
       </c>
       <c r="G35">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H35">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -15600,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -15620,16 +15641,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
         <v>331</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>0.03</v>
@@ -15647,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -15667,25 +15688,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>0.03</v>
       </c>
       <c r="G37">
-        <v>1.3207</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H37">
-        <v>0.32100000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -15694,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -15714,25 +15735,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>0.03</v>
       </c>
       <c r="G38">
-        <v>1.3207</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H38">
-        <v>0.32100000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -15741,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -15760,26 +15781,26 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>306</v>
+      <c r="B39" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
         <v>40</v>
-      </c>
-      <c r="E39">
-        <v>42</v>
       </c>
       <c r="F39">
         <v>0.03</v>
       </c>
       <c r="G39">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H39">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -15788,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -15808,25 +15829,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
         <v>41</v>
-      </c>
-      <c r="E40">
-        <v>43</v>
       </c>
       <c r="F40">
         <v>0.03</v>
       </c>
       <c r="G40">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H40">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -15835,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -15855,16 +15876,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C41" t="s">
         <v>331</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41">
         <v>0.03</v>
@@ -15882,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -15902,16 +15923,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>0.03</v>
@@ -15929,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -15949,25 +15970,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D43">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E43">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G43">
-        <v>0.16200000000000001</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H43">
-        <v>8.3199999999999996E-2</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -15976,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -15985,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -15996,25 +16017,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G44">
-        <v>0.16200000000000001</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H44">
-        <v>8.3199999999999996E-2</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -16023,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -16032,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -16042,17 +16063,17 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>312</v>
+      <c r="B45" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="C45" t="s">
         <v>326</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>3.5000000000000003E-2</v>
@@ -16070,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -16089,17 +16110,17 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>313</v>
+      <c r="B46" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="C46" t="s">
         <v>326</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>3.5000000000000003E-2</v>
@@ -16117,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -16137,16 +16158,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
         <v>326</v>
       </c>
       <c r="D47">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>3.5000000000000003E-2</v>
@@ -16164,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -16184,16 +16205,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C48" t="s">
         <v>326</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>3.5000000000000003E-2</v>
@@ -16211,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -16231,16 +16252,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
         <v>326</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E49">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F49">
         <v>3.5000000000000003E-2</v>
@@ -16258,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -16278,16 +16299,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C50" t="s">
         <v>326</v>
       </c>
       <c r="D50">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F50">
         <v>3.5000000000000003E-2</v>
@@ -16305,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -16324,20 +16345,20 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>318</v>
+      <c r="B51" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C51" t="s">
         <v>326</v>
       </c>
       <c r="D51">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F51">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G51">
         <v>0.16200000000000001</v>
@@ -16352,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -16371,17 +16392,17 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>319</v>
+      <c r="B52" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C52" t="s">
         <v>326</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E52">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>3.5000000000000003E-2</v>
@@ -16399,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -16418,17 +16439,17 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>320</v>
+      <c r="B53" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C53" t="s">
         <v>326</v>
       </c>
       <c r="D53">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E53">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>3.5000000000000003E-2</v>
@@ -16446,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -16465,20 +16486,20 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>321</v>
+      <c r="B54" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="C54" t="s">
         <v>326</v>
       </c>
       <c r="D54">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E54">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F54">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G54">
         <v>0.16200000000000001</v>
@@ -16493,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -16513,19 +16534,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C55" t="s">
         <v>326</v>
       </c>
       <c r="D55">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F55">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G55">
         <v>0.16200000000000001</v>
@@ -16540,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -16560,7 +16581,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C56" t="s">
         <v>326</v>
@@ -16569,10 +16590,10 @@
         <v>57</v>
       </c>
       <c r="E56">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F56">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G56">
         <v>0.16200000000000001</v>
@@ -16587,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -16607,19 +16628,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C57" t="s">
         <v>326</v>
       </c>
       <c r="D57">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E57">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F57">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G57">
         <v>0.16200000000000001</v>
@@ -16634,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -16654,16 +16675,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C58" t="s">
         <v>326</v>
       </c>
       <c r="D58">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E58">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <v>0.03</v>
@@ -16681,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -16701,19 +16722,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="C59" t="s">
         <v>326</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F59">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G59">
         <v>0.16200000000000001</v>
@@ -16728,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -16748,19 +16769,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
         <v>326</v>
       </c>
       <c r="D60">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E60">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F60">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G60">
         <v>0.16200000000000001</v>
@@ -16775,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -16795,25 +16816,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F61">
         <v>0.03</v>
       </c>
       <c r="G61">
-        <v>0.49170000000000003</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H61">
-        <v>0.28470000000000001</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -16822,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -16831,20 +16852,35 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8DFEE-2F76-4F14-A72E-1201BDC376D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFC0D2-F781-4F9F-8CE7-086E3714881E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="360">
   <si>
     <t>element</t>
   </si>
@@ -863,9 +863,6 @@
     <t>CIGRE_LV</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>CHP diesel</t>
   </si>
   <si>
@@ -878,174 +875,6 @@
     <t>CB</t>
   </si>
   <si>
-    <t>Line R1-R2</t>
-  </si>
-  <si>
-    <t>Line R2-R3</t>
-  </si>
-  <si>
-    <t>Line R3-R4</t>
-  </si>
-  <si>
-    <t>Line R4-R5</t>
-  </si>
-  <si>
-    <t>Line R5-R6</t>
-  </si>
-  <si>
-    <t>Line R6-R7</t>
-  </si>
-  <si>
-    <t>Line R7-R8</t>
-  </si>
-  <si>
-    <t>Line R8-R9</t>
-  </si>
-  <si>
-    <t>Line R9-R10</t>
-  </si>
-  <si>
-    <t>Line R3-R11</t>
-  </si>
-  <si>
-    <t>Line R4-R12</t>
-  </si>
-  <si>
-    <t>Line R12-R13</t>
-  </si>
-  <si>
-    <t>Line R13-R14</t>
-  </si>
-  <si>
-    <t>Line R14-R15</t>
-  </si>
-  <si>
-    <t>Line R6-R16</t>
-  </si>
-  <si>
-    <t>Line R9-R17</t>
-  </si>
-  <si>
-    <t>Line R10-R18</t>
-  </si>
-  <si>
-    <t>Line I0-I1</t>
-  </si>
-  <si>
-    <t>Line I1-I2</t>
-  </si>
-  <si>
-    <t>Line I1-I3</t>
-  </si>
-  <si>
-    <t>Line C0-C1</t>
-  </si>
-  <si>
-    <t>Line C1-C2</t>
-  </si>
-  <si>
-    <t>Line C2-C3</t>
-  </si>
-  <si>
-    <t>Line C3-C4</t>
-  </si>
-  <si>
-    <t>Line C4-C5</t>
-  </si>
-  <si>
-    <t>Line C5-C6</t>
-  </si>
-  <si>
-    <t>Line C6-C7</t>
-  </si>
-  <si>
-    <t>Line C7-C8</t>
-  </si>
-  <si>
-    <t>Line C8-C9</t>
-  </si>
-  <si>
-    <t>Line C3-C10</t>
-  </si>
-  <si>
-    <t>Line C10-C11</t>
-  </si>
-  <si>
-    <t>Line C11-C12</t>
-  </si>
-  <si>
-    <t>Line C11-C13</t>
-  </si>
-  <si>
-    <t>Line C10-C14</t>
-  </si>
-  <si>
-    <t>Line C5-C15</t>
-  </si>
-  <si>
-    <t>Line C15-C16</t>
-  </si>
-  <si>
-    <t>Line C15-C17</t>
-  </si>
-  <si>
-    <t>Line C16-C18</t>
-  </si>
-  <si>
-    <t>Line C8-C19</t>
-  </si>
-  <si>
-    <t>Line C9-C20</t>
-  </si>
-  <si>
-    <t>Line RC1-RC2</t>
-  </si>
-  <si>
-    <t>Line RC2-RC3</t>
-  </si>
-  <si>
-    <t>Line RC3-RC4</t>
-  </si>
-  <si>
-    <t>Line RC4-RC5</t>
-  </si>
-  <si>
-    <t>Line RC5-RC6</t>
-  </si>
-  <si>
-    <t>Line RC2-RC8</t>
-  </si>
-  <si>
-    <t>Line RC8-RC9</t>
-  </si>
-  <si>
-    <t>Line RC9-RC10</t>
-  </si>
-  <si>
-    <t>Line RC10-RC11</t>
-  </si>
-  <si>
-    <t>Line RC11-RC12</t>
-  </si>
-  <si>
-    <t>Line RC12-RC13</t>
-  </si>
-  <si>
-    <t>Line RC13-RC14</t>
-  </si>
-  <si>
-    <t>Line RC14-RC15</t>
-  </si>
-  <si>
-    <t>Line RC12-RC16</t>
-  </si>
-  <si>
-    <t>Line RC16-RC17</t>
-  </si>
-  <si>
-    <t>Line RC17-RC18</t>
-  </si>
-  <si>
     <t>UG1</t>
   </si>
   <si>
@@ -1292,21 +1121,6 @@
     <t>SRC</t>
   </si>
   <si>
-    <t>PV 1r</t>
-  </si>
-  <si>
-    <t>PV 2r</t>
-  </si>
-  <si>
-    <t>PV 3r</t>
-  </si>
-  <si>
-    <t>PV 4r</t>
-  </si>
-  <si>
-    <t>PV 5r</t>
-  </si>
-  <si>
     <t>CHP diesel 1r</t>
   </si>
   <si>
@@ -1316,33 +1130,12 @@
     <t>CHP diesel 3rc</t>
   </si>
   <si>
-    <t>PV 7rc</t>
-  </si>
-  <si>
-    <t>PV 8rc</t>
-  </si>
-  <si>
-    <t>PV 9rc</t>
-  </si>
-  <si>
     <t>CHP diesel 4c</t>
   </si>
   <si>
     <t>CHP diesel 5c</t>
   </si>
   <si>
-    <t>Line I2-I3</t>
-  </si>
-  <si>
-    <t>Line R0-R1</t>
-  </si>
-  <si>
-    <t>Line RC0-RC1</t>
-  </si>
-  <si>
-    <t>Line main</t>
-  </si>
-  <si>
     <t>CHP diesel 6rc</t>
   </si>
   <si>
@@ -1350,13 +1143,16 @@
   </si>
   <si>
     <t>CHP diesel 2r</t>
+  </si>
+  <si>
+    <t>Battery 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,25 +1168,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1431,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1439,11 +1229,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7228,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8032,7 +7820,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -8041,7 +7829,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -8055,7 +7843,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B2">
         <v>4.0299999999999997E-3</v>
@@ -8073,7 +7861,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H2">
         <v>8.3000000000000004E-2</v>
@@ -8081,7 +7869,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B3">
         <v>4.0299999999999997E-3</v>
@@ -8099,7 +7887,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>0.08</v>
@@ -8107,7 +7895,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B4">
         <v>4.0299999999999997E-3</v>
@@ -8125,7 +7913,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H4">
         <v>0.08</v>
@@ -8133,7 +7921,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B5">
         <v>4.0299999999999997E-3</v>
@@ -8151,7 +7939,7 @@
         <v>0.313</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H5">
         <v>0.13200000000000001</v>
@@ -8159,7 +7947,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B6">
         <v>4.0299999999999997E-3</v>
@@ -8177,7 +7965,7 @@
         <v>0.161</v>
       </c>
       <c r="G6" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H6">
         <v>0.11700000000000001</v>
@@ -8185,7 +7973,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B7">
         <v>4.0299999999999997E-3</v>
@@ -8203,7 +7991,7 @@
         <v>0.122</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H7">
         <v>0.112</v>
@@ -8211,7 +7999,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>4.0299999999999997E-3</v>
@@ -8229,7 +8017,7 @@
         <v>0.313</v>
       </c>
       <c r="G8" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H8">
         <v>0.123</v>
@@ -8237,7 +8025,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B9">
         <v>4.0299999999999997E-3</v>
@@ -8255,7 +8043,7 @@
         <v>0.161</v>
       </c>
       <c r="G9" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H9">
         <v>0.11</v>
@@ -8263,7 +8051,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B10">
         <v>4.0299999999999997E-3</v>
@@ -8281,7 +8069,7 @@
         <v>0.122</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H10">
         <v>0.105</v>
@@ -8289,7 +8077,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B11">
         <v>4.0299999999999997E-3</v>
@@ -8307,7 +8095,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H11">
         <v>0.11600000000000001</v>
@@ -8315,7 +8103,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B12">
         <v>4.0299999999999997E-3</v>
@@ -8333,7 +8121,7 @@
         <v>0.253</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H12">
         <v>0.11899999999999999</v>
@@ -8341,7 +8129,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="B13">
         <v>4.0299999999999997E-3</v>
@@ -8359,7 +8147,7 @@
         <v>0.443</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H13">
         <v>0.13200000000000001</v>
@@ -8367,7 +8155,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="B14">
         <v>4.0299999999999997E-3</v>
@@ -8385,7 +8173,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H14">
         <v>0.11</v>
@@ -8393,7 +8181,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="B15">
         <v>4.0299999999999997E-3</v>
@@ -8411,7 +8199,7 @@
         <v>0.253</v>
       </c>
       <c r="G15" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H15">
         <v>0.113</v>
@@ -8419,7 +8207,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="B16">
         <v>4.0299999999999997E-3</v>
@@ -8437,7 +8225,7 @@
         <v>0.443</v>
       </c>
       <c r="G16" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H16">
         <v>0.123</v>
@@ -8445,7 +8233,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>3.9300000000000003E-3</v>
@@ -8463,7 +8251,7 @@
         <v>0.153</v>
       </c>
       <c r="G17" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H17">
         <v>0.16600000000000001</v>
@@ -8471,7 +8259,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B18">
         <v>3.9300000000000003E-3</v>
@@ -8489,7 +8277,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H18">
         <v>0.156</v>
@@ -8497,7 +8285,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B19">
         <v>3.9300000000000003E-3</v>
@@ -8515,7 +8303,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H19">
         <v>0.14899999999999999</v>
@@ -8523,7 +8311,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="B20">
         <v>3.9300000000000003E-3</v>
@@ -8541,7 +8329,7 @@
         <v>0.06</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H20">
         <v>0.14399999999999999</v>
@@ -8549,7 +8337,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>4.0299999999999997E-3</v>
@@ -8567,7 +8355,7 @@
         <v>1.8769</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H21">
         <v>0.35</v>
@@ -8575,7 +8363,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="B22">
         <v>4.0299999999999997E-3</v>
@@ -8593,7 +8381,7 @@
         <v>1.2012</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H22">
         <v>0.33500000000000002</v>
@@ -8601,7 +8389,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="B23">
         <v>4.0299999999999997E-3</v>
@@ -8619,7 +8407,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H23">
         <v>0.3</v>
@@ -8627,7 +8415,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B24">
         <v>4.0299999999999997E-3</v>
@@ -8645,7 +8433,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H24">
         <v>0.28999999999999998</v>
@@ -8653,7 +8441,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B25">
         <v>4.0299999999999997E-3</v>
@@ -8671,7 +8459,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G25" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H25">
         <v>0.36</v>
@@ -8679,7 +8467,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B26">
         <v>4.0299999999999997E-3</v>
@@ -8697,7 +8485,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G26" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -8705,7 +8493,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <v>4.0299999999999997E-3</v>
@@ -8723,7 +8511,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H27">
         <v>0.33900000000000002</v>
@@ -8731,7 +8519,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="B28">
         <v>4.0299999999999997E-3</v>
@@ -8749,7 +8537,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G28" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H28">
         <v>0.33</v>
@@ -8757,7 +8545,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B29">
         <v>4.0299999999999997E-3</v>
@@ -8775,7 +8563,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H29">
         <v>0.32300000000000001</v>
@@ -8783,7 +8571,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="B30">
         <v>4.0299999999999997E-3</v>
@@ -8801,7 +8589,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H30">
         <v>0.315</v>
@@ -8809,7 +8597,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="B31">
         <v>4.0299999999999997E-3</v>
@@ -8827,7 +8615,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H31">
         <v>0.38200000000000001</v>
@@ -8835,7 +8623,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B32">
         <v>4.0299999999999997E-3</v>
@@ -8853,7 +8641,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H32">
         <v>0.372</v>
@@ -8861,7 +8649,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="B33">
         <v>4.0299999999999997E-3</v>
@@ -8879,7 +8667,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H33">
         <v>0.36</v>
@@ -8887,7 +8675,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B34">
         <v>4.0299999999999997E-3</v>
@@ -8905,7 +8693,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H34">
         <v>0.35</v>
@@ -8913,7 +8701,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="B35">
         <v>4.0299999999999997E-3</v>
@@ -8931,7 +8719,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H35">
         <v>0.34399999999999997</v>
@@ -8939,7 +8727,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B36">
         <v>4.0299999999999997E-3</v>
@@ -8957,7 +8745,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H36">
         <v>0.33700000000000002</v>
@@ -8965,7 +8753,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B37">
         <v>4.0299999999999997E-3</v>
@@ -8983,7 +8771,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H37">
         <v>0.33</v>
@@ -8991,7 +8779,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="B38">
         <v>4.0299999999999997E-3</v>
@@ -9009,7 +8797,7 @@
         <v>0.1188</v>
       </c>
       <c r="G38" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H38">
         <v>0.32</v>
@@ -9017,7 +8805,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B39">
         <v>4.0299999999999997E-3</v>
@@ -9035,7 +8823,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H39">
         <v>0.41</v>
@@ -9043,7 +8831,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="B40">
         <v>4.0299999999999997E-3</v>
@@ -9061,7 +8849,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H40">
         <v>0.4</v>
@@ -9069,7 +8857,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="B41">
         <v>4.0299999999999997E-3</v>
@@ -9087,7 +8875,7 @@
         <v>0.1188</v>
       </c>
       <c r="G41" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H41">
         <v>0.39</v>
@@ -9095,7 +8883,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="B42">
         <v>4.0299999999999997E-3</v>
@@ -9113,7 +8901,7 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H42">
         <v>0.38</v>
@@ -9121,7 +8909,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="B43">
         <v>4.0299999999999997E-3</v>
@@ -9139,7 +8927,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H43">
         <v>0.28499999999999998</v>
@@ -9147,7 +8935,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="B44">
         <v>4.0299999999999997E-3</v>
@@ -9165,7 +8953,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G44" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H44">
         <v>0.253</v>
@@ -9173,7 +8961,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -9185,7 +8973,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H45">
         <v>8.3199999999999996E-2</v>
@@ -9193,7 +8981,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9205,7 +8993,7 @@
         <v>0.26469999999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H46">
         <v>8.2299999999999998E-2</v>
@@ -9213,7 +9001,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9225,7 +9013,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H47">
         <v>8.4699999999999998E-2</v>
@@ -9233,7 +9021,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -9245,7 +9033,7 @@
         <v>0.49170000000000003</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H48">
         <v>0.28470000000000001</v>
@@ -9253,7 +9041,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -9265,7 +9053,7 @@
         <v>1.3207</v>
       </c>
       <c r="G49" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H49">
         <v>0.32100000000000001</v>
@@ -9273,7 +9061,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -9285,7 +9073,7 @@
         <v>2.0167000000000002</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H50">
         <v>0.33429999999999999</v>
@@ -9339,7 +9127,7 @@
         <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>97</v>
@@ -9356,7 +9144,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -9383,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9392,7 +9180,7 @@
         <v>1.5</v>
       </c>
       <c r="M2" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="N2">
         <v>12.2</v>
@@ -9409,7 +9197,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -9436,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -9445,7 +9233,7 @@
         <v>1.5</v>
       </c>
       <c r="M3" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="N3">
         <v>12</v>
@@ -9462,7 +9250,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -9489,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -9498,7 +9286,7 @@
         <v>1.5</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N4">
         <v>18</v>
@@ -9515,7 +9303,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -9542,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9551,7 +9339,7 @@
         <v>1.5</v>
       </c>
       <c r="M5" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N5">
         <v>16.2</v>
@@ -9568,7 +9356,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
@@ -9595,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9604,7 +9392,7 @@
         <v>1.5</v>
       </c>
       <c r="M6" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -9621,7 +9409,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -9648,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9657,7 +9445,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N7">
         <v>18</v>
@@ -9674,7 +9462,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -9701,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9710,7 +9498,7 @@
         <v>1.5</v>
       </c>
       <c r="M8" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N8">
         <v>16.2</v>
@@ -9727,7 +9515,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B9">
         <v>7.0000000000000007E-2</v>
@@ -9754,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -9763,7 +9551,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="N9">
         <v>12</v>
@@ -9780,7 +9568,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -9807,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -9816,7 +9604,7 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="N10">
         <v>6</v>
@@ -9833,7 +9621,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="B11">
         <v>0.33750000000000002</v>
@@ -9860,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -9869,7 +9657,7 @@
         <v>2.5</v>
       </c>
       <c r="M11" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -9886,7 +9674,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="B12">
         <v>0.26190000000000002</v>
@@ -9913,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -9922,7 +9710,7 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -9939,7 +9727,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -9966,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9975,7 +9763,7 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -9992,7 +9780,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="B14">
         <v>0.23749999999999999</v>
@@ -10019,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10028,7 +9816,7 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -10045,7 +9833,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="B15">
         <v>0.18729999999999999</v>
@@ -10072,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10081,7 +9869,7 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -10147,7 +9935,7 @@
         <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>115</v>
@@ -10179,7 +9967,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="B2">
         <v>0.89</v>
@@ -10212,13 +10000,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="M2">
         <v>1.2</v>
       </c>
       <c r="N2" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="O2">
         <v>10.4</v>
@@ -10250,7 +10038,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B3">
         <v>0.89</v>
@@ -10283,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="M3">
         <v>1.2</v>
       </c>
       <c r="N3" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="O3">
         <v>10.4</v>
@@ -11992,7 +11780,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12034,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12046,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -12066,10 +11854,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -12078,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.0000000000000001E-3</v>
+        <v>0.31</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -12098,10 +11886,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -12110,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -12130,10 +11918,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12142,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.0000000000000001E-3</v>
+        <v>0.31</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12162,10 +11950,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12174,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12194,10 +11982,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12206,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -12215,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -12226,10 +12014,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -12247,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -12258,10 +12046,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -12270,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -12279,270 +12067,38 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11">
-        <v>62</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12">
-        <v>61</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>265</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C13">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.31</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>266</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C15">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16">
-        <v>63</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.31</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>266</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.31</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J9">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12553,8 +12109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12609,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -12633,11 +12189,40 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -12649,6 +12234,7 @@
       <c r="A6" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12658,7 +12244,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12708,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -13984,20 +13570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
@@ -14042,11 +13622,8 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -14070,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -14079,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -14089,11 +13666,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>422</v>
-      </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -14126,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -14136,11 +13710,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -14173,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -14183,11 +13754,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -14220,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -14230,11 +13798,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -14267,7 +13832,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -14277,11 +13842,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -14314,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -14324,11 +13886,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -14361,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -14371,11 +13930,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>275</v>
-      </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -14408,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -14418,11 +13974,8 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>276</v>
-      </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -14455,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -14465,11 +14018,8 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>277</v>
-      </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -14502,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -14512,11 +14062,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>278</v>
-      </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -14549,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -14559,11 +14106,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>279</v>
-      </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -14596,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -14606,11 +14150,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>280</v>
-      </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -14643,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -14653,11 +14194,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>281</v>
-      </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -14690,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -14700,11 +14238,8 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>282</v>
-      </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -14737,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -14747,11 +14282,8 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>283</v>
-      </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -14784,7 +14316,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -14794,11 +14326,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>284</v>
-      </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -14831,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -14841,11 +14370,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>285</v>
-      </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -14878,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -14888,11 +14414,8 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>286</v>
-      </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -14925,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -14935,11 +14458,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -14972,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -14982,11 +14502,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D22">
         <v>22</v>
@@ -15019,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -15029,11 +14546,8 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>289</v>
-      </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -15066,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -15076,11 +14590,8 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>421</v>
-      </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -15113,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -15123,11 +14634,8 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -15160,7 +14668,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -15170,11 +14678,8 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -15207,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -15217,11 +14722,8 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -15254,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -15264,11 +14766,8 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -15301,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -15311,11 +14810,8 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -15348,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -15358,11 +14854,8 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>295</v>
-      </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -15395,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -15405,11 +14898,8 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>296</v>
-      </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D31">
         <v>31</v>
@@ -15442,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -15452,11 +14942,8 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>297</v>
-      </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -15489,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -15499,11 +14986,8 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>298</v>
-      </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -15536,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -15546,11 +15030,8 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D34">
         <v>28</v>
@@ -15583,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -15593,11 +15074,8 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>300</v>
-      </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -15630,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -15640,11 +15118,8 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>301</v>
-      </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -15677,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -15687,11 +15162,8 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>302</v>
-      </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -15724,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -15734,11 +15206,8 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>303</v>
-      </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -15771,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -15781,11 +15250,8 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -15818,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -15828,11 +15294,8 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>305</v>
-      </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D40">
         <v>40</v>
@@ -15865,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -15875,11 +15338,8 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>306</v>
-      </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -15912,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -15922,11 +15382,8 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>307</v>
-      </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -15959,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -15969,11 +15426,8 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>308</v>
-      </c>
       <c r="C43" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D43">
         <v>33</v>
@@ -16006,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -16016,11 +15470,8 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>309</v>
-      </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D44">
         <v>34</v>
@@ -16053,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -16063,11 +15514,8 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="C45" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D45">
         <v>46</v>
@@ -16100,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -16110,11 +15558,8 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="C46" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D46">
         <v>47</v>
@@ -16147,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -16157,11 +15602,8 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>311</v>
-      </c>
       <c r="C47" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -16194,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -16204,11 +15646,8 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>312</v>
-      </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D48">
         <v>49</v>
@@ -16241,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -16251,11 +15690,8 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>313</v>
-      </c>
       <c r="C49" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D49">
         <v>50</v>
@@ -16288,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -16298,11 +15734,8 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>314</v>
-      </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D50">
         <v>51</v>
@@ -16335,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -16345,11 +15778,8 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D51">
         <v>48</v>
@@ -16382,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -16392,11 +15822,8 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D52">
         <v>53</v>
@@ -16429,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -16439,11 +15866,8 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D53">
         <v>54</v>
@@ -16476,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -16486,11 +15910,8 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="C54" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D54">
         <v>55</v>
@@ -16523,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -16533,11 +15954,8 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>319</v>
-      </c>
       <c r="C55" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D55">
         <v>56</v>
@@ -16570,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -16580,11 +15998,8 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>320</v>
-      </c>
       <c r="C56" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D56">
         <v>57</v>
@@ -16617,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -16627,11 +16042,8 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>321</v>
-      </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D57">
         <v>58</v>
@@ -16664,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -16674,11 +16086,8 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>322</v>
-      </c>
       <c r="C58" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D58">
         <v>59</v>
@@ -16711,7 +16120,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -16721,11 +16130,8 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>323</v>
-      </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D59">
         <v>57</v>
@@ -16758,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -16768,11 +16174,8 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>324</v>
-      </c>
       <c r="C60" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D60">
         <v>61</v>
@@ -16805,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -16815,11 +16218,8 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>325</v>
-      </c>
       <c r="C61" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D61">
         <v>62</v>
@@ -16852,35 +16252,29 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16934,13 +16328,13 @@
         <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16960,13 +16354,13 @@
         <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16986,13 +16380,13 @@
         <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17012,13 +16406,13 @@
         <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFC0D2-F781-4F9F-8CE7-086E3714881E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07A253-E4E0-49D0-8122-A385F806BC1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="361">
   <si>
     <t>element</t>
   </si>
@@ -1146,6 +1146,9 @@
   </si>
   <si>
     <t>Battery 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -12107,9 +12110,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -12232,6 +12235,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13570,9 +13578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D1:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/circuits/net3.xlsx
+++ b/circuits/net3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07A253-E4E0-49D0-8122-A385F806BC1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BFF349-05D0-45A5-A2EF-ACA1BBBD5528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="420">
   <si>
     <t>element</t>
   </si>
@@ -1148,7 +1148,184 @@
     <t>Battery 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Line main</t>
+  </si>
+  <si>
+    <t>Line R0-R1</t>
+  </si>
+  <si>
+    <t>Line R1-R2</t>
+  </si>
+  <si>
+    <t>Line R2-R3</t>
+  </si>
+  <si>
+    <t>Line R3-R4</t>
+  </si>
+  <si>
+    <t>Line R4-R5</t>
+  </si>
+  <si>
+    <t>Line R5-R6</t>
+  </si>
+  <si>
+    <t>Line R6-R7</t>
+  </si>
+  <si>
+    <t>Line R7-R8</t>
+  </si>
+  <si>
+    <t>Line R8-R9</t>
+  </si>
+  <si>
+    <t>Line R9-R10</t>
+  </si>
+  <si>
+    <t>Line R3-R11</t>
+  </si>
+  <si>
+    <t>Line R4-R12</t>
+  </si>
+  <si>
+    <t>Line R12-R13</t>
+  </si>
+  <si>
+    <t>Line R13-R14</t>
+  </si>
+  <si>
+    <t>Line R14-R15</t>
+  </si>
+  <si>
+    <t>Line R6-R16</t>
+  </si>
+  <si>
+    <t>Line R9-R17</t>
+  </si>
+  <si>
+    <t>Line R10-R18</t>
+  </si>
+  <si>
+    <t>Line I0-I1</t>
+  </si>
+  <si>
+    <t>Line I1-I2</t>
+  </si>
+  <si>
+    <t>Line I1-I3</t>
+  </si>
+  <si>
+    <t>Line I2-I3</t>
+  </si>
+  <si>
+    <t>Line C0-C1</t>
+  </si>
+  <si>
+    <t>Line C1-C2</t>
+  </si>
+  <si>
+    <t>Line C2-C3</t>
+  </si>
+  <si>
+    <t>Line C3-C4</t>
+  </si>
+  <si>
+    <t>Line C4-C5</t>
+  </si>
+  <si>
+    <t>Line C5-C6</t>
+  </si>
+  <si>
+    <t>Line C6-C7</t>
+  </si>
+  <si>
+    <t>Line C7-C8</t>
+  </si>
+  <si>
+    <t>Line C8-C9</t>
+  </si>
+  <si>
+    <t>Line C3-C10</t>
+  </si>
+  <si>
+    <t>Line C10-C11</t>
+  </si>
+  <si>
+    <t>Line C11-C12</t>
+  </si>
+  <si>
+    <t>Line C11-C13</t>
+  </si>
+  <si>
+    <t>Line C10-C14</t>
+  </si>
+  <si>
+    <t>Line C5-C15</t>
+  </si>
+  <si>
+    <t>Line C15-C16</t>
+  </si>
+  <si>
+    <t>Line C15-C17</t>
+  </si>
+  <si>
+    <t>Line C16-C18</t>
+  </si>
+  <si>
+    <t>Line C8-C19</t>
+  </si>
+  <si>
+    <t>Line C9-C20</t>
+  </si>
+  <si>
+    <t>Line RC0-RC1</t>
+  </si>
+  <si>
+    <t>Line RC1-RC2</t>
+  </si>
+  <si>
+    <t>Line RC2-RC3</t>
+  </si>
+  <si>
+    <t>Line RC3-RC4</t>
+  </si>
+  <si>
+    <t>Line RC4-RC5</t>
+  </si>
+  <si>
+    <t>Line RC5-RC6</t>
+  </si>
+  <si>
+    <t>Line RC2-RC8</t>
+  </si>
+  <si>
+    <t>Line RC8-RC9</t>
+  </si>
+  <si>
+    <t>Line RC9-RC10</t>
+  </si>
+  <si>
+    <t>Line RC10-RC11</t>
+  </si>
+  <si>
+    <t>Line RC11-RC12</t>
+  </si>
+  <si>
+    <t>Line RC12-RC13</t>
+  </si>
+  <si>
+    <t>Line RC13-RC14</t>
+  </si>
+  <si>
+    <t>Line RC14-RC15</t>
+  </si>
+  <si>
+    <t>Line RC12-RC16</t>
+  </si>
+  <si>
+    <t>Line RC16-RC17</t>
+  </si>
+  <si>
+    <t>Line RC17-RC18</t>
   </si>
 </sst>
 </file>
@@ -1178,12 +1355,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1224,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1239,6 +1428,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12110,7 +12301,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
@@ -12235,11 +12426,6 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>360</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13579,13 +13765,16 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D1:E61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
@@ -13630,6 +13819,9 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="C2" t="s">
         <v>272</v>
       </c>
@@ -13673,6 +13865,9 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="C3" t="s">
         <v>269</v>
@@ -13718,6 +13913,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="C4" t="s">
         <v>269</v>
       </c>
@@ -13762,6 +13960,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="C5" t="s">
         <v>269</v>
       </c>
@@ -13806,6 +14007,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="C6" t="s">
         <v>269</v>
       </c>
@@ -13850,6 +14054,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="C7" t="s">
         <v>269</v>
       </c>
@@ -13894,6 +14101,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="C8" t="s">
         <v>269</v>
       </c>
@@ -13938,6 +14148,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
       <c r="C9" t="s">
         <v>269</v>
       </c>
@@ -13982,6 +14195,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
       <c r="C10" t="s">
         <v>269</v>
       </c>
@@ -14026,6 +14242,9 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
       <c r="C11" t="s">
         <v>269</v>
       </c>
@@ -14070,6 +14289,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
       <c r="C12" t="s">
         <v>269</v>
       </c>
@@ -14114,6 +14336,9 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
       <c r="C13" t="s">
         <v>270</v>
       </c>
@@ -14158,6 +14383,9 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>372</v>
+      </c>
       <c r="C14" t="s">
         <v>270</v>
       </c>
@@ -14202,6 +14430,9 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
       <c r="C15" t="s">
         <v>270</v>
       </c>
@@ -14246,6 +14477,9 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
       <c r="C16" t="s">
         <v>270</v>
       </c>
@@ -14290,6 +14524,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>375</v>
+      </c>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -14334,6 +14571,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>376</v>
+      </c>
       <c r="C18" t="s">
         <v>270</v>
       </c>
@@ -14378,6 +14618,9 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
       <c r="C19" t="s">
         <v>270</v>
       </c>
@@ -14422,6 +14665,9 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>378</v>
+      </c>
       <c r="C20" t="s">
         <v>270</v>
       </c>
@@ -14466,6 +14712,9 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="C21" t="s">
         <v>271</v>
       </c>
@@ -14510,6 +14759,9 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="C22" t="s">
         <v>271</v>
       </c>
@@ -14554,6 +14806,9 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>381</v>
+      </c>
       <c r="C23" t="s">
         <v>271</v>
       </c>
@@ -14598,6 +14853,9 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>382</v>
+      </c>
       <c r="C24" t="s">
         <v>271</v>
       </c>
@@ -14642,6 +14900,9 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="C25" t="s">
         <v>272</v>
       </c>
@@ -14686,6 +14947,9 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="C26" t="s">
         <v>272</v>
       </c>
@@ -14730,6 +14994,9 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="C27" t="s">
         <v>272</v>
       </c>
@@ -14774,6 +15041,9 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28" s="7" t="s">
+        <v>386</v>
+      </c>
       <c r="C28" t="s">
         <v>272</v>
       </c>
@@ -14818,6 +15088,9 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="C29" t="s">
         <v>272</v>
       </c>
@@ -14862,6 +15135,9 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>388</v>
+      </c>
       <c r="C30" t="s">
         <v>272</v>
       </c>
@@ -14906,6 +15182,9 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>389</v>
+      </c>
       <c r="C31" t="s">
         <v>272</v>
       </c>
@@ -14950,6 +15229,9 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>390</v>
+      </c>
       <c r="C32" t="s">
         <v>272</v>
       </c>
@@ -14994,6 +15276,9 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>391</v>
+      </c>
       <c r="C33" t="s">
         <v>272</v>
       </c>
@@ -15038,6 +15323,9 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>392</v>
+      </c>
       <c r="C34" t="s">
         <v>273</v>
       </c>
@@ -15082,6 +15370,9 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
       <c r="C35" t="s">
         <v>273</v>
       </c>
@@ -15126,6 +15417,9 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>394</v>
+      </c>
       <c r="C36" t="s">
         <v>274</v>
       </c>
@@ -15170,6 +15464,9 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>395</v>
+      </c>
       <c r="C37" t="s">
         <v>274</v>
       </c>
@@ -15214,6 +15511,9 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>396</v>
+      </c>
       <c r="C38" t="s">
         <v>274</v>
       </c>
@@ -15258,6 +15558,9 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="C39" t="s">
         <v>273</v>
       </c>
@@ -15302,6 +15605,9 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>398</v>
+      </c>
       <c r="C40" t="s">
         <v>273</v>
       </c>
@@ -15346,6 +15652,9 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>399</v>
+      </c>
       <c r="C41" t="s">
         <v>274</v>
       </c>
@@ -15390,6 +15699,9 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>400</v>
+      </c>
       <c r="C42" t="s">
         <v>274</v>
       </c>
@@ -15434,6 +15746,9 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>401</v>
+      </c>
       <c r="C43" t="s">
         <v>274</v>
       </c>
@@ -15478,6 +15793,9 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>402</v>
+      </c>
       <c r="C44" t="s">
         <v>274</v>
       </c>
@@ -15522,6 +15840,9 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="C45" t="s">
         <v>269</v>
       </c>
@@ -15566,6 +15887,9 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="C46" t="s">
         <v>269</v>
       </c>
@@ -15610,6 +15934,9 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>405</v>
+      </c>
       <c r="C47" t="s">
         <v>269</v>
       </c>
@@ -15654,6 +15981,9 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>406</v>
+      </c>
       <c r="C48" t="s">
         <v>269</v>
       </c>
@@ -15698,6 +16028,9 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>407</v>
+      </c>
       <c r="C49" t="s">
         <v>269</v>
       </c>
@@ -15742,6 +16075,9 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>408</v>
+      </c>
       <c r="C50" t="s">
         <v>269</v>
       </c>
@@ -15786,6 +16122,9 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" s="7" t="s">
+        <v>409</v>
+      </c>
       <c r="C51" t="s">
         <v>269</v>
       </c>
@@ -15830,6 +16169,9 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
+      <c r="B52" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="C52" t="s">
         <v>269</v>
       </c>
@@ -15874,6 +16216,9 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
+      <c r="B53" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="C53" t="s">
         <v>269</v>
       </c>
@@ -15918,6 +16263,9 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
+      <c r="B54" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="C54" t="s">
         <v>269</v>
       </c>
@@ -15962,6 +16310,9 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
+      <c r="B55" t="s">
+        <v>413</v>
+      </c>
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -16006,6 +16357,9 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>414</v>
+      </c>
       <c r="C56" t="s">
         <v>269</v>
       </c>
@@ -16050,6 +16404,9 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
+      <c r="B57" t="s">
+        <v>415</v>
+      </c>
       <c r="C57" t="s">
         <v>269</v>
       </c>
@@ -16094,6 +16451,9 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>416</v>
+      </c>
       <c r="C58" t="s">
         <v>269</v>
       </c>
@@ -16138,6 +16498,9 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
+      <c r="B59" t="s">
+        <v>417</v>
+      </c>
       <c r="C59" t="s">
         <v>269</v>
       </c>
@@ -16182,6 +16545,9 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>418</v>
+      </c>
       <c r="C60" t="s">
         <v>269</v>
       </c>
@@ -16225,6 +16591,9 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>419</v>
       </c>
       <c r="C61" t="s">
         <v>269</v>
